--- a/Entrega 6/Visualizaciones atómicas/Bases de datos/tiktok 3 años.xlsx
+++ b/Entrega 6/Visualizaciones atómicas/Bases de datos/tiktok 3 años.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65406c1b0c758e6c/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isifl\Desktop\GitHub\Proyecto-booktok\Entrega 6\Visualizaciones atómicas\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DED5A54B-A232-471F-AEAC-5B4008806116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE3A256-C2A7-4F1B-BAE0-220C35BD9F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C42205E4-21EE-4AEA-9784-C56916361F2F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9144" xr2:uid="{C42205E4-21EE-4AEA-9784-C56916361F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,13 +925,13 @@
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.19921875" customWidth="1"/>
-    <col min="2" max="2" width="21.8984375" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -953,7 +953,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,7 +997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>83700</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>83700</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>83700</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>83700</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>83700</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>8920</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>8920</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>8920</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>8920</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>8920</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>14700</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>14700</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>14700</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>421700</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>421700</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>421700</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>421700</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>421700</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>24900</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>24900</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>24900</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>24900</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>24900</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="27.6">
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>421.7</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>421.7</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>421.7</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>421.7</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>421.7</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>421.7</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>421.7</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>421.7</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>631200</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>631200</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>631200</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>631200</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>631200</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>631200</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>631200</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>101300</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>101300</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>105</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>101300</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>101300</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>101300</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>101300</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>101300</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>101300</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>111</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>101300</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>112</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>101300</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>101300</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>114</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>101300</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>241300</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>115</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>241300</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>241300</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>241300</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>118</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>241300</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>119</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>241300</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>120</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>139100</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>121</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>139100</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>122</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>139100</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>139100</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>123</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>139100</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>139100</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>139100</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>139100</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>524000</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>126</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>524000</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>524000</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>524000</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>524000</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>524000</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>524000</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>524000</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>524000</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>524000</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>524000</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>524000</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>107</v>
       </c>
